--- a/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q31A-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>19.77172209783397</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>17.6154404874475</v>
+        <v>17.61544048744751</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>17.48851810527023</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>17.03610560648627</v>
+        <v>17.03702124907202</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>16.98307235906191</v>
+        <v>17.00047503483993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>16.4827052060164</v>
+        <v>16.55984267179588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>16.67610683848881</v>
+        <v>16.68040959869334</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>17.1892889587214</v>
+        <v>17.14682378554785</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>18.25593387293675</v>
+        <v>18.20524417179925</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>18.5541182810098</v>
+        <v>18.46863603696161</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>17.32276627351736</v>
+        <v>17.37418355376688</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.18512856953873</v>
+        <v>17.1990829500005</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>17.61365742007959</v>
+        <v>17.63524292995239</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17.47940578165459</v>
+        <v>17.486959317182</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>16.97186890091216</v>
+        <v>16.97306204293422</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.72841652581673</v>
+        <v>17.80048122947566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.23632933412141</v>
+        <v>18.17772392609305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17.59255002126302</v>
+        <v>17.6226396577086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.07363972837733</v>
+        <v>17.08996725954323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>18.26418796914776</v>
+        <v>18.24965853506238</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.22861538036152</v>
+        <v>20.27980680442891</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>22.96175286067467</v>
+        <v>22.9596549226935</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>18.04661919871531</v>
+        <v>18.09167552584751</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.78775943502959</v>
+        <v>17.78096308514932</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>18.7234760395808</v>
+        <v>18.70777458809591</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>19.21308831167866</v>
+        <v>19.12794198354242</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>17.32862668795626</v>
+        <v>17.34210986017288</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>16.70860647953129</v>
+        <v>16.71545099922772</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>16.81524604554279</v>
+        <v>16.82097637555621</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16.80201268907411</v>
+        <v>16.83950644223518</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.54614841384596</v>
+        <v>16.5249534369539</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>17.21429752681285</v>
+        <v>17.23442120406041</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>17.7320727401428</v>
+        <v>17.69737306789765</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>17.75764074677006</v>
+        <v>17.71280735252977</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>18.32130029786416</v>
+        <v>18.29091858715581</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>16.9249035319998</v>
+        <v>16.92840747595592</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17.23781523457316</v>
+        <v>17.21690583159088</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17.15534242236224</v>
+        <v>17.14243128637408</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>17.23396809560996</v>
+        <v>17.22939072338835</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.21026541313215</v>
+        <v>17.23033518959876</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.39142345703156</v>
+        <v>17.37668902391091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.36705341969482</v>
+        <v>17.40872830248163</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.13060645795616</v>
+        <v>17.12970417497028</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>18.92764139923675</v>
+        <v>18.87644157719131</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>18.85463413352448</v>
+        <v>18.85451138570541</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>18.72096536145417</v>
+        <v>18.70272246467216</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>20.30802521276657</v>
+        <v>20.21685273788701</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>17.46235476842932</v>
+        <v>17.46439495343323</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17.77920689708706</v>
+        <v>17.73952555087142</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17.62605277570247</v>
+        <v>17.64210870246305</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>18.00919519694852</v>
+        <v>18.03661598804142</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>17.8022837648283</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>18.91531409735527</v>
+        <v>18.91531409735528</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>17.18825892016512</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>16.55496800149379</v>
+        <v>16.55268711258159</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>16.86493054207232</v>
+        <v>16.85221285450541</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.45841450460471</v>
+        <v>16.44312110446857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16.41606556812265</v>
+        <v>16.40421002502676</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>17.64769016012538</v>
+        <v>17.66378621687404</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>18.07310743013881</v>
+        <v>18.07554630431373</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>17.3976117639709</v>
+        <v>17.31590656126692</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>18.02140110491291</v>
+        <v>18.01439675870352</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>16.93303205483516</v>
+        <v>16.94157279430408</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17.42386334843365</v>
+        <v>17.43163755417114</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16.85406325794913</v>
+        <v>16.85617773444831</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>17.05781098977984</v>
+        <v>17.07694878304616</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.11373322360936</v>
+        <v>17.11854510240975</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.44530658828235</v>
+        <v>17.42107357958163</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16.9814811751306</v>
+        <v>16.96984323120328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.42535998380423</v>
+        <v>17.38122204470951</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>18.40138390647274</v>
+        <v>18.39687386047594</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>19.75640960952263</v>
+        <v>19.76291010557667</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.47151555815383</v>
+        <v>18.37966059469836</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>20.38154362514286</v>
+        <v>20.40562943193323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>17.40459824543728</v>
+        <v>17.41039783631028</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18.17088100877892</v>
+        <v>18.1678997253375</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17.39105441266985</v>
+        <v>17.38654000443327</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>17.9790246403058</v>
+        <v>18.08193897703737</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>16.93483150472724</v>
+        <v>16.92925783292914</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>17.58477404990551</v>
+        <v>17.54668655739074</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18.01319265897311</v>
+        <v>17.99747019864023</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17.17327222815002</v>
+        <v>17.15125836817598</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>17.59298378117199</v>
+        <v>17.58788036570301</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>18.42350454271407</v>
+        <v>18.37760088930852</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>20.07165935684152</v>
+        <v>20.06365694871755</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>17.94951286561984</v>
+        <v>17.91315560743648</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>17.24447881883848</v>
+        <v>17.24632072502046</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17.94987325655221</v>
+        <v>17.96679853429592</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18.99964801443239</v>
+        <v>19.00005037311304</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>17.57415347670667</v>
+        <v>17.60662568712624</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>17.39826230986911</v>
+        <v>17.3977855379481</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.50287363007576</v>
+        <v>19.40466758178158</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19.21103583331622</v>
+        <v>19.20688059296948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.85411510633436</v>
+        <v>17.85472723291189</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>18.41010051529972</v>
+        <v>18.379111111929</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>20.05200133503088</v>
+        <v>20.00596385837936</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>22.33689244675693</v>
+        <v>22.38684516431509</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>19.22516437560605</v>
+        <v>19.19721242646481</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>17.67594308317256</v>
+        <v>17.65214128370674</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>19.39257483191057</v>
+        <v>19.17986238340075</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20.16507237914655</v>
+        <v>20.19350605572033</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>18.22361413412086</v>
+        <v>18.24544240911161</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>16.31935825038452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17.0688980432446</v>
+        <v>17.06889804324459</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>17.70878381547032</v>
@@ -1225,7 +1225,7 @@
         <v>16.91795952226236</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>17.84945568781834</v>
+        <v>17.84945568781835</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>17.29362802879707</v>
@@ -1237,7 +1237,7 @@
         <v>16.49372109632874</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>17.25708144523854</v>
+        <v>17.25708144523855</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>16.75130332389694</v>
+        <v>16.71783211795471</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>16.28229338563181</v>
+        <v>16.32035522812372</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.04714451512775</v>
+        <v>16.02134124650009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.71494487496105</v>
+        <v>16.67587648654677</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>17.02858386581558</v>
+        <v>17.05419257280475</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>16.5885156432358</v>
+        <v>16.59274323634163</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>16.1886411857977</v>
+        <v>16.22979250160709</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>17.25545053215686</v>
+        <v>17.25606717638324</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>16.95589296828678</v>
+        <v>16.95024858367632</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16.52086230351594</v>
+        <v>16.57967947297869</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16.20131187459645</v>
+        <v>16.19827427917697</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.91625878990326</v>
+        <v>16.94622580610499</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.44865988519121</v>
+        <v>17.41809533923533</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.27466924721548</v>
+        <v>17.30457918389951</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16.64998458858567</v>
+        <v>16.64646663888219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.42573173944213</v>
+        <v>17.48240645482901</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>18.59468873408111</v>
+        <v>18.7191894116368</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.63978651248351</v>
+        <v>18.54540130930403</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.9677009318118</v>
+        <v>19.34918719431809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.78816826839888</v>
+        <v>18.73665463401699</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.69582434365081</v>
+        <v>17.65531448746179</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17.47917928022258</v>
+        <v>17.51941294104779</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17.22440804148249</v>
+        <v>17.19672753069279</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>17.64938694931903</v>
+        <v>17.60335991145341</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>17.0179412292295</v>
+        <v>17.04212658435442</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>16.89839286462394</v>
+        <v>16.89986206437303</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16.37484690579124</v>
+        <v>16.36078996504343</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16.20650779414451</v>
+        <v>16.19271643448</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>17.5271016548887</v>
+        <v>17.58081402950415</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>18.27022558071882</v>
+        <v>18.32396500887233</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>17.77989260678985</v>
+        <v>17.82872053659593</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>16.96868266394891</v>
+        <v>16.97506547910179</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>17.30138147841337</v>
+        <v>17.29271927059954</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17.4705031616839</v>
+        <v>17.47718733271616</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16.99964872635698</v>
+        <v>16.9935902870602</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>16.55733646091299</v>
+        <v>16.55367302525737</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.54592839721488</v>
+        <v>17.57418591065733</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.64038140461644</v>
+        <v>17.67257563431567</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16.91513463686951</v>
+        <v>16.90832188064741</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.65045620786923</v>
+        <v>16.65304558362777</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>18.58712079948717</v>
+        <v>18.57762491544816</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>19.63458602455275</v>
+        <v>19.62958614792157</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>19.74882129946401</v>
+        <v>19.72880543477782</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>17.81764953387075</v>
+        <v>17.89137106756782</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>17.81333707231981</v>
+        <v>17.79988587637618</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18.12563550992195</v>
+        <v>18.19942922927298</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17.79339984599044</v>
+        <v>17.69122166358041</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>16.98819372200263</v>
+        <v>17.00412296881366</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         <v>17.32797444270759</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>18.81723922002781</v>
+        <v>18.8172392200278</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>16.96752398165438</v>
+        <v>16.94809069824868</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>16.97814993478572</v>
+        <v>16.99318686547914</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.77523806321214</v>
+        <v>16.7674793656673</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>17.77349962042009</v>
+        <v>17.78082375576205</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>17.83559135398195</v>
+        <v>17.80189545681201</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>18.17010076015915</v>
+        <v>18.17537454319529</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>17.4916833980041</v>
+        <v>17.53295567680077</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>19.08916024893307</v>
+        <v>19.08037915737027</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.28579969400208</v>
+        <v>17.31510017153948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17.4756130797756</v>
+        <v>17.4821917302339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17.14517646473889</v>
+        <v>17.12234504937211</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>18.43554048911922</v>
+        <v>18.41428399408116</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.50604512323181</v>
+        <v>17.46413751682263</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>17.75591071961404</v>
+        <v>17.91662243192139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.22273375870186</v>
+        <v>17.23598474860626</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>18.6742281944911</v>
+        <v>18.63135379950781</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>18.73086563301329</v>
+        <v>18.64745875025698</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>19.38394588018182</v>
+        <v>19.38095747801859</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>18.21687258061226</v>
+        <v>18.18877521879618</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>20.59586928996806</v>
+        <v>20.61986348548595</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.72330391322557</v>
+        <v>17.74243593205719</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>18.15871255981005</v>
+        <v>18.16956274042845</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>17.52668814097613</v>
+        <v>17.54514536710176</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>19.28025965861502</v>
+        <v>19.23587644708927</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>16.78407746943566</v>
+        <v>16.76502074544157</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>17.2786774417214</v>
+        <v>17.27250624317088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>16.43025240573168</v>
+        <v>16.44572196817636</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16.60627665417026</v>
+        <v>16.57606616541937</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>18.17192865303377</v>
+        <v>18.23401655068827</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>18.43757153341182</v>
+        <v>18.36274094300052</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>17.74029071241077</v>
+        <v>17.73394651869642</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>17.11557694074939</v>
+        <v>17.06477357297339</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>17.32871019753834</v>
+        <v>17.33447284796724</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17.72961963356236</v>
+        <v>17.74548379170498</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16.99940539184491</v>
+        <v>16.98784224574194</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>16.81015005962057</v>
+        <v>16.77652011837034</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>17.21758277233616</v>
+        <v>17.21043740920328</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>17.70320241043728</v>
+        <v>17.71473453795847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.7937063034421</v>
+        <v>16.78268360187534</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>17.1856784114808</v>
+        <v>17.15860849198625</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>19.28656919733913</v>
+        <v>19.3106632362335</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>20.53150012775908</v>
+        <v>20.32309227098054</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>19.09820748810289</v>
+        <v>19.08787264264914</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>18.03689462526429</v>
+        <v>18.03791025093967</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>17.81676880295902</v>
+        <v>17.81960482648163</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>18.45620096291293</v>
+        <v>18.46506729724014</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17.5880189063309</v>
+        <v>17.5726412212642</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>17.297552684382</v>
+        <v>17.26927557764433</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.99738413028112</v>
+        <v>17.00706830722363</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>17.20970494429952</v>
+        <v>17.20576826460958</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16.90367256688751</v>
+        <v>16.8910456453928</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17.01298376151652</v>
+        <v>17.01348691422168</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>17.9558959599669</v>
+        <v>17.96163594754342</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>18.47890822631722</v>
+        <v>18.48204350943911</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>18.3111149466908</v>
+        <v>18.28585178832655</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>18.30622293241267</v>
+        <v>18.32552046061739</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.34422959991226</v>
+        <v>17.33793153318165</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17.68543892522453</v>
+        <v>17.6780966091437</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>17.45782610883382</v>
+        <v>17.45420755918813</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>17.51869044155505</v>
+        <v>17.51756640449765</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>17.18860889758249</v>
+        <v>17.18604502311667</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.51422928935539</v>
+        <v>17.50446619461034</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.13931294759731</v>
+        <v>17.11728333904295</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>17.28258246836198</v>
+        <v>17.30055761715573</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>18.358496126549</v>
+        <v>18.37166508184007</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>19.08864929541616</v>
+        <v>19.082613755688</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.97489860655466</v>
+        <v>18.93350576770444</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>18.91349900112731</v>
+        <v>18.93844027885774</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.52766453184896</v>
+        <v>17.53121100284934</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17.98025853966445</v>
+        <v>17.95945523995308</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>17.7318986408882</v>
+        <v>17.73491586983536</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>17.79954220432675</v>
+        <v>17.79705398957806</v>
       </c>
     </row>
     <row r="31">
